--- a/docs/eDNA/example_output/Results_relab_matrix.xlsx
+++ b/docs/eDNA/example_output/Results_relab_matrix.xlsx
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.08015624140397205</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.4732762888056007</v>
       </c>
     </row>
     <row r="4">
@@ -457,6 +457,15 @@
           <t>Teleost Fish</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -474,6 +483,15 @@
           <t>Marine Mammal</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -498,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.02574075383636235</v>
       </c>
     </row>
     <row r="7">
@@ -518,7 +536,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.02901290799401867</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -547,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.001283673506812639</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -569,6 +587,15 @@
           <t>Teleost Fish</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.003062478223395866</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -613,7 +640,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.04035681751774634</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -638,6 +665,15 @@
           <t>Teleost Fish</t>
         </is>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -656,7 +692,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.005465701861432426</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -685,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03192550714998337</v>
+        <v>0.001760466523628762</v>
       </c>
       <c r="F14">
-        <v>0.9680744928500167</v>
+        <v>0.0411710628668411</v>
       </c>
     </row>
     <row r="15">
@@ -711,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.001925510260218958</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -737,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.0120665309640388</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -763,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.0458821587720746</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -785,6 +821,15 @@
           <t>Teleost Fish</t>
         </is>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -803,10 +848,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.9650095271089555</v>
+        <v>0.09575290902528316</v>
       </c>
       <c r="E19">
-        <v>0.03499047289104452</v>
+        <v>0.003704314976802186</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -828,6 +873,15 @@
           <t>Teleost Fish</t>
         </is>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -849,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.0008618950688599145</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -872,13 +926,13 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.02388083866267304</v>
+        <v>0.01014076760454444</v>
       </c>
       <c r="E22">
-        <v>0.3817291346231685</v>
+        <v>0.1729474977535713</v>
       </c>
       <c r="F22">
-        <v>0.5943900267141585</v>
+        <v>0.2076939396082314</v>
       </c>
     </row>
     <row r="23">
@@ -897,6 +951,15 @@
           <t>Teleost Fish</t>
         </is>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -914,6 +977,15 @@
           <t>Marine Mammal</t>
         </is>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -932,10 +1004,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.9787251188653396</v>
+        <v>0.6262353689348756</v>
       </c>
       <c r="E25">
-        <v>0.02127488113466033</v>
+        <v>0.01452384881993728</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -961,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.0003117492802259266</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -984,10 +1056,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.06591070163004961</v>
+        <v>0.001598459978343446</v>
       </c>
       <c r="E27">
-        <v>0.9340892983699504</v>
+        <v>0.02416973831398654</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1010,13 +1082,13 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.7009041591320072</v>
+        <v>0.03330984341967309</v>
       </c>
       <c r="E28">
-        <v>0.2867992766726944</v>
+        <v>0.01454218701289175</v>
       </c>
       <c r="F28">
-        <v>0.01229656419529837</v>
+        <v>0.0004808712255144615</v>
       </c>
     </row>
     <row r="29">
@@ -1036,13 +1108,13 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.05822550831792976</v>
+        <v>0.002165655454529829</v>
       </c>
       <c r="E29">
-        <v>0.9403881700554528</v>
+        <v>0.03731822266233886</v>
       </c>
       <c r="F29">
-        <v>0.001386321626617375</v>
+        <v>4.24298140159819E-05</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.006583411270653389</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1088,10 +1160,10 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.8703044227455485</v>
+        <v>0.1302143311390316</v>
       </c>
       <c r="E31">
-        <v>0.1296955772544515</v>
+        <v>0.02070381984559241</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1117,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.003172507381122664</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1140,7 +1212,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.001289080627696327</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1166,10 +1238,10 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.004273504273504274</v>
+        <v>6.875096681047077E-05</v>
       </c>
       <c r="E34">
-        <v>0.9957264957264957</v>
+        <v>0.01709119583356256</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1192,13 +1264,13 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.003551998561215773</v>
+        <v>0.002715663189013596</v>
       </c>
       <c r="E35">
-        <v>0.6021536801402815</v>
+        <v>0.491188498285379</v>
       </c>
       <c r="F35">
-        <v>0.3942943212985028</v>
+        <v>0.2480588360087688</v>
       </c>
     </row>
     <row r="36">
@@ -1221,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0.02099723093286388</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1247,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.001485393629311768</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1269,57 +1341,66 @@
           <t>Teleost Fish</t>
         </is>
       </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Red White or Spotted hake</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D39">
-        <v>0.5489769264257728</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.4462342185459295</v>
+        <v>0.005464781500430948</v>
       </c>
       <c r="F39">
-        <v>0.00478885502829778</v>
+        <v>0.003380241849939891</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Urophycis sp</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Red White or Spotted hake</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.02167374228700091</v>
       </c>
       <c r="E40">
-        <v>0.5549348230912476</v>
+        <v>0.01879664777832792</v>
       </c>
       <c r="F40">
-        <v>0.4450651769087523</v>
+        <v>0.000155575984725267</v>
       </c>
     </row>
   </sheetData>

--- a/docs/eDNA/example_output/Results_relab_matrix.xlsx
+++ b/docs/eDNA/example_output/Results_relab_matrix.xlsx
@@ -99741,7 +99741,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Wild boar</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
